--- a/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,591 +497,577 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Net Sales/Income from operations</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3,322.71</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,053.94</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2,692.19</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3,041.55</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3,189.63</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>4053.94</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2692.19</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3260.004</v>
+          <t>Q1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Other Operating Income</t>
+          <t>Net Sales/Income from operations</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>3,322.71</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4,053.94</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2,692.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>3,041.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3,189.63</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>77.3</v>
+        <v>4053.94</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.59</v>
+        <v>2692.19</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>19.206</v>
+        <v>3260.004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Other Operating Income</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>19.206</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Total Income From Operations</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>3,328.88</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>4,056.81</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2,699.29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>3,118.85</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3,192.22</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>4056.81</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>2699.29</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>3279.21</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EXPENDITURE</t>
-        </is>
-      </c>
-    </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Consumption of Raw Materials</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.11</v>
+          <t>EXPENDITURE</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Purchase of Traded Goods</t>
+          <t>Consumption of Raw Materials</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2,608.74</t>
+          <t>--</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3,356.10</t>
+          <t>--</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2,675.84</t>
+          <t>--</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2,643.03</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2,598.31</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>3356.1</v>
+        <v>0.11</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>2598.31</v>
+        <v>0.11</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>2776.404</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Increase/Decrease in Stocks</t>
+          <t>Purchase of Traded Goods</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>138.92</t>
+          <t>2,608.74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>64.65</t>
+          <t>3,356.10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-333.81</t>
+          <t>2,675.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70.65</t>
+          <t>2,643.03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>154.42</t>
+          <t>2,598.31</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>154.42</v>
+        <v>3356.1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-333.81</v>
+        <v>2598.31</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>18.966</v>
+        <v>2776.404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Employees Cost</t>
+          <t>Increase/Decrease in Stocks</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>45.50</t>
+          <t>138.92</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>42.53</t>
+          <t>64.65</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>36.88</t>
+          <t>-333.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>154.42</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45.5</v>
+        <v>154.42</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>36.88</v>
+        <v>-333.81</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>40.414</v>
+        <v>18.966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depreciat</t>
+          <t>Employees Cost</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20.47</t>
+          <t>45.50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>42.53</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.63</t>
+          <t>36.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>22.23</v>
+        <v>45.5</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>14.63</v>
+        <v>36.88</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>17.488</v>
+        <v>40.414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Other Expenses</t>
+          <t>depreciat</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>517.98</t>
+          <t>20.47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>599.92</t>
+          <t>22.23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>492.93</t>
+          <t>14.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>409.15</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>719.77</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>719.77</v>
+        <v>22.23</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>409.15</v>
+        <v>14.63</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>547.95</v>
+        <v>17.488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+          <t>Other Expenses</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>517.98</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-28.62</t>
+          <t>599.92</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-187.18</t>
+          <t>492.93</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-57.41</t>
+          <t>409.15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-334.23</t>
+          <t>719.77</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-2.73</v>
+        <v>719.77</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-334.23</v>
+        <v>409.15</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>-122.034</v>
+        <v>547.95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Other Income</t>
+          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>456.32</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>254.19</t>
+          <t>-28.62</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>357.55</t>
+          <t>-187.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>221.05</t>
+          <t>-57.41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>372.27</t>
+          <t>-334.23</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>456.32</v>
+        <v>-2.73</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>221.05</v>
+        <v>-334.23</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>332.276</v>
+        <v>-122.034</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+          <t>Other Income</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>453.59</t>
+          <t>456.32</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>225.57</t>
+          <t>254.19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>170.37</t>
+          <t>357.55</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>163.64</t>
+          <t>221.05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>38.04</t>
+          <t>372.27</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>453.59</v>
+        <v>456.32</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>38.04</v>
+        <v>221.05</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>210.242</v>
+        <v>332.276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Interest</t>
+          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>240.34</t>
+          <t>453.59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>219.06</t>
+          <t>225.57</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>179.31</t>
+          <t>170.37</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>206.29</t>
+          <t>163.64</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>217.96</t>
+          <t>38.04</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>240.34</v>
+        <v>453.59</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>179.31</v>
+        <v>38.04</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>212.592</v>
+        <v>210.242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P/L Before Exceptional Items &amp; Tax</t>
+          <t>Interest</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>213.25</t>
+          <t>240.34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>219.06</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-8.94</t>
+          <t>179.31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-42.65</t>
+          <t>206.29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-179.92</t>
+          <t>217.96</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>213.25</v>
+        <v>240.34</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-179.92</v>
+        <v>179.31</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>-2.349999999999997</v>
+        <v>212.592</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P/L Before Tax</t>
+          <t>P/L Before Exceptional Items &amp; Tax</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1122,89 +1108,89 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>P/L Before Tax</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>213.25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-111.15</t>
+          <t>-8.94</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-42.65</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-77.67</t>
+          <t>-179.92</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>5.48</v>
+        <v>213.25</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-111.15</v>
+        <v>-179.92</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>-36.456</v>
+        <v>-2.349999999999997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P/L After Tax from Ordinary Activities</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>212.28</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>102.21</t>
+          <t>-111.15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-42.74</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-102.25</t>
+          <t>-77.67</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>212.28</v>
+        <v>5.48</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-102.25</v>
+        <v>-111.15</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>34.106</v>
+        <v>-36.456</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Net Profit/(Loss) For the Period</t>
+          <t>P/L After Tax from Ordinary Activities</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1245,97 +1231,97 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Net Profit/(Loss) For the Period</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>212.28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>102.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-42.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-102.25</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>212.28</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>-102.25</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>34.106</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Equity Share Capital</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>109.98</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>109.98</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>109.98</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>109.98</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>109.98</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H23" s="2" t="n">
         <v>109.98</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I23" s="2" t="n">
         <v>109.98</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J23" s="2" t="n">
         <v>109.98</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>EPS Before Extra Ordinary</t>
-        </is>
-      </c>
-    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Basic EPS</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.3099999999999999</v>
+          <t>EPS Before Extra Ordinary</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Diluted EPS</t>
+          <t>Basic EPS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1373,59 +1359,59 @@
         <v>0.3099999999999999</v>
       </c>
     </row>
-    <row r="27"/>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>EPS After Extra Ordinary</t>
-        </is>
-      </c>
-    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Diluted EPS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+    </row>
+    <row r="28"/>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Basic EPS.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.3099999999999999</v>
+          <t>EPS After Extra Ordinary</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Diluted EPS.</t>
+          <t>Basic EPS.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1463,363 +1449,404 @@
         <v>0.3099999999999999</v>
       </c>
     </row>
-    <row r="31"/>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Public Share Holding</t>
-        </is>
-      </c>
-    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Diluted EPS.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+    </row>
+    <row r="32"/>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>No Of Shares (Crores)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>27.5</v>
+          <t>Public Share Holding</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>No Of Shares (Crores)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Share Holding (%)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J35" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="35"/>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Promoters and Promoter Group Shareholding</t>
         </is>
       </c>
     </row>
-    <row r="37"/>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>a) Pledged/Encumbered</t>
-        </is>
-      </c>
-    </row>
+    <row r="38"/>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>- Number of shares (Crores)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>13.18</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>11.348</v>
+          <t>a) Pledged/Encumbered</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group)</t>
+          <t>- Number of shares (Crores)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15.98</t>
+          <t>13.18</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>11.84</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>15.98</v>
+        <v>13.18</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>12.05</v>
+        <v>9.94</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>13.76</v>
+        <v>11.348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>- Per. of shares (as a % of the total Share Cap. of the company)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>11.98</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>9.04</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>9.04</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>10.77</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>10.77</t>
         </is>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H42" s="2" t="n">
         <v>11.98</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I42" s="2" t="n">
         <v>9.039999999999999</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J42" s="2" t="n">
         <v>10.32</v>
       </c>
     </row>
-    <row r="42"/>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>b) Non-encumbered</t>
-        </is>
-      </c>
-    </row>
+    <row r="43"/>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>- Number of shares (Crores).</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>69.31</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>72.55</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>72.55</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>70.64</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>70.64</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>72.55</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>69.31</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>71.13800000000001</v>
+          <t>b) Non-encumbered</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group).</t>
+          <t>- Number of shares (Crores).</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>69.31</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>72.55</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>72.55</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>70.64</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>70.64</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>87.95</v>
+        <v>72.55</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>84.02</v>
+        <v>69.31</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>86.23999999999999</v>
+        <v>71.13800000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group).</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>87.95</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>84.02</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>86.23999999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>- Per. of shares (as a % of the total Share Cap. of the company).</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>63.02</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>65.96</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>65.96</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>64.23</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>64.23</t>
         </is>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H47" s="2" t="n">
         <v>65.95999999999999</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I47" s="2" t="n">
         <v>63.02</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="J47" s="2" t="n">
         <v>64.67999999999999</v>
       </c>
     </row>

--- a/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,1398 +449,1072 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
-        </is>
-      </c>
+      <c r="F1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net Sales/Income from operations</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>3,189.63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>3,041.55</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>2,692.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>4,053.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>3,322.71</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Net Sales/Income from operations</t>
+          <t>Other Operating Income</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3,322.71</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4,053.94</t>
+          <t>77.30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2,692.19</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3,041.55</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3,189.63</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>4053.94</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>2692.19</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>3260.004</v>
+          <t>6.17</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Operating Income</t>
+          <t>Total Income From Operations</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>3,192.22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3,118.85</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2,699.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>4,056.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>19.206</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Total Income From Operations</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>3,328.88</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4,056.81</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2,699.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3,118.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3,192.22</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>4056.81</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>2699.29</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>3279.21</v>
-      </c>
-    </row>
-    <row r="6"/>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EXPENDITURE</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EXPENDITURE</t>
+          <t>Consumption of Raw Materials</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Consumption of Raw Materials</t>
+          <t>Purchase of Traded Goods</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2,598.31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2,643.03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>2,675.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>3,356.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.11</v>
+          <t>2,608.74</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Purchase of Traded Goods</t>
+          <t>Increase/Decrease in Stocks</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2,608.74</t>
+          <t>154.42</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3,356.10</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2,675.84</t>
+          <t>-333.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2,643.03</t>
+          <t>64.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2,598.31</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>3356.1</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>2598.31</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>2776.404</v>
+          <t>138.92</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Increase/Decrease in Stocks</t>
+          <t>Employees Cost</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>138.92</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>64.65</t>
+          <t>38.52</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-333.81</t>
+          <t>36.88</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70.65</t>
+          <t>42.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>154.42</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>154.42</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>-333.81</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>18.966</v>
+          <t>45.50</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Employees Cost</t>
+          <t>depreciat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45.50</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>42.53</t>
+          <t>14.91</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>36.88</t>
+          <t>14.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>38.52</t>
+          <t>22.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>38.64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>36.88</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>40.414</v>
+          <t>20.47</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depreciat</t>
+          <t>Other Expenses</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20.47</t>
+          <t>719.77</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>409.15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14.63</t>
+          <t>492.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>599.92</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15.20</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>17.488</v>
+          <t>517.98</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Other Expenses</t>
+          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>517.98</t>
+          <t>-334.23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>599.92</t>
+          <t>-57.41</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>492.93</t>
+          <t>-187.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>409.15</t>
+          <t>-28.62</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>719.77</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>719.77</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>409.15</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>547.95</v>
+          <t>-2.73</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+          <t>Other Income</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>372.27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-28.62</t>
+          <t>221.05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-187.18</t>
+          <t>357.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-57.41</t>
+          <t>254.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-334.23</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>-2.73</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-334.23</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>-122.034</v>
+          <t>456.32</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Other Income</t>
+          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>456.32</t>
+          <t>38.04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>254.19</t>
+          <t>163.64</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>357.55</t>
+          <t>170.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>221.05</t>
+          <t>225.57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>372.27</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>456.32</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>221.05</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>332.276</v>
+          <t>453.59</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+          <t>Interest</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>453.59</t>
+          <t>217.96</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>225.57</t>
+          <t>206.29</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>170.37</t>
+          <t>179.31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>163.64</t>
+          <t>219.06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>38.04</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>453.59</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>38.04</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>210.242</v>
+          <t>240.34</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Interest</t>
+          <t>P/L Before Exceptional Items &amp; Tax</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>240.34</t>
+          <t>-179.92</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>219.06</t>
+          <t>-42.65</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>179.31</t>
+          <t>-8.94</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>206.29</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>217.96</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>240.34</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>179.31</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>212.592</v>
+          <t>213.25</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P/L Before Exceptional Items &amp; Tax</t>
+          <t>P/L Before Tax</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>-179.92</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-42.65</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-8.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>213.25</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-8.94</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-42.65</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-179.92</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>213.25</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-179.92</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-2.349999999999997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P/L Before Tax</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>213.25</t>
+          <t>-77.67</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-8.94</t>
+          <t>-111.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-42.65</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-179.92</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>213.25</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-179.92</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-2.349999999999997</v>
+          <t>0.97</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>P/L After Tax from Ordinary Activities</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>-102.25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>-42.74</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-111.15</t>
+          <t>102.21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-77.67</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-111.15</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>-36.456</v>
+          <t>212.28</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P/L After Tax from Ordinary Activities</t>
+          <t>Net Profit/(Loss) For the Period</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>-102.25</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-42.74</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>102.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>212.28</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>102.21</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-42.74</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-102.25</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>212.28</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-102.25</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>34.106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Net Profit/(Loss) For the Period</t>
+          <t>Equity Share Capital</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>212.28</t>
+          <t>109.98</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>109.98</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>102.21</t>
+          <t>109.98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-42.74</t>
+          <t>109.98</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-102.25</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>212.28</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>-102.25</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>34.106</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Equity Share Capital</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>109.98</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>109.98</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>109.98</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>109.98</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>109.98</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>109.98</v>
-      </c>
-    </row>
-    <row r="24"/>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EPS Before Extra Ordinary</t>
+        </is>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EPS Before Extra Ordinary</t>
+          <t>Basic EPS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.93</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Basic EPS</t>
+          <t>Diluted EPS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>1.93</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.3099999999999999</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Diluted EPS</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.3099999999999999</v>
-      </c>
-    </row>
-    <row r="28"/>
+    </row>
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EPS After Extra Ordinary</t>
+        </is>
+      </c>
+    </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EPS After Extra Ordinary</t>
+          <t>Basic EPS.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.93</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Basic EPS.</t>
+          <t>Diluted EPS.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>-0.93</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-0.39</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>1.93</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.3099999999999999</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Diluted EPS.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-0.39</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-0.93</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.3099999999999999</v>
-      </c>
-    </row>
-    <row r="32"/>
+    </row>
+    <row r="31"/>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Public Share Holding</t>
+        </is>
+      </c>
+    </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Public Share Holding</t>
+          <t>No Of Shares (Crores)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>27.50</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>No Of Shares (Crores)</t>
+          <t>Share Holding (%)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Share Holding (%)</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    </row>
+    <row r="35"/>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Promoters and Promoter Group Shareholding</t>
         </is>
       </c>
     </row>
-    <row r="38"/>
+    <row r="37"/>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>a) Pledged/Encumbered</t>
+        </is>
+      </c>
+    </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>a) Pledged/Encumbered</t>
+          <t>- Number of shares (Crores)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>13.18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>- Number of shares (Crores)</t>
+          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>14.36</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>14.36</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11.84</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>11.348</v>
+          <t>15.98</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group)</t>
+          <t>- Per. of shares (as a % of the total Share Cap. of the company)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15.98</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14.36</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>14.36</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>- Per. of shares (as a % of the total Share Cap. of the company)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>11.98</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>10.32</v>
-      </c>
-    </row>
-    <row r="43"/>
+    </row>
+    <row r="42"/>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>b) Non-encumbered</t>
+        </is>
+      </c>
+    </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>b) Non-encumbered</t>
+          <t>- Number of shares (Crores).</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>72.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>72.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>69.31</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>- Number of shares (Crores).</t>
+          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group).</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>69.31</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>72.55</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>72.55</t>
+          <t>87.95</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>70.64</t>
+          <t>87.95</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>70.64</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>72.55</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>69.31</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>71.13800000000001</v>
+          <t>84.02</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>- Per. of shares (as a % of the total sh. of prom. and promoter group).</t>
+          <t>- Per. of shares (as a % of the total Share Cap. of the company).</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>64.23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>64.23</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>65.96</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>85.64</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>87.95</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>84.02</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>86.23999999999999</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>- Per. of shares (as a % of the total Share Cap. of the company).</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>63.02</t>
         </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>64.23</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>64.23</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>63.02</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>64.67999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -449,25 +449,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Dec '13</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Mar '14</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Jun '14</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Sep '14</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
